--- a/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_EQ组.xlsx
+++ b/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_EQ组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KFB28\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitDoc\Mogo_Doc\VersionRecords\Version 3.1.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>No</t>
   </si>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>【租客PC】- 官网福利社展示联系人等信息调整</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】- 调整了伙伴登录页面底部“投诉建议”、“业务介绍”弹出框内容</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -808,7 +812,7 @@
   <dimension ref="A1:T194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -911,13 +915,13 @@
         <v>20</v>
       </c>
       <c r="F2" s="17">
-        <v>42530</v>
+        <v>42527</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="17">
-        <v>42530</v>
+        <v>42527</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="25" t="s">
@@ -953,13 +957,13 @@
         <v>20</v>
       </c>
       <c r="F3" s="17">
-        <v>42530</v>
+        <v>42527</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="17">
-        <v>42530</v>
+        <v>42527</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="25" t="s">
@@ -978,18 +982,38 @@
       <c r="S3" s="25"/>
       <c r="T3" s="32"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="17">
+        <v>42527</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="17">
+        <v>42527</v>
+      </c>
       <c r="I4" s="16"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="16"/>
+      <c r="J4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="L4" s="16"/>
       <c r="M4" s="25"/>
       <c r="N4" s="17"/>

--- a/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_EQ组.xlsx
+++ b/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitDoc\Mogo_Doc\VersionRecords\Version 3.1.4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>No</t>
   </si>
@@ -146,12 +141,36 @@
     <t>【房东PC】- 调整了伙伴登录页面底部“投诉建议”、“业务介绍”弹出框内容</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要手动执行定时器</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -351,7 +370,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,6 +475,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -808,14 +830,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="11" customWidth="1"/>
@@ -834,12 +856,12 @@
     <col min="16" max="16" width="12" style="12" customWidth="1"/>
     <col min="17" max="17" width="17" style="12" customWidth="1"/>
     <col min="18" max="18" width="14.125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="5.75" style="11" customWidth="1"/>
+    <col min="19" max="19" width="16.75" style="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -898,7 +920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="36.75" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -930,17 +952,29 @@
       <c r="K2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="25"/>
+      <c r="L2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="17">
+        <v>42528</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>40</v>
+      </c>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="29"/>
+      <c r="R2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>42</v>
+      </c>
       <c r="T2" s="30"/>
     </row>
-    <row r="3" spans="1:20" s="33" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="33" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -972,17 +1006,27 @@
       <c r="K3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="25"/>
+      <c r="L3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="17">
+        <v>42528</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>40</v>
+      </c>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
+      <c r="R3" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="S3" s="25"/>
       <c r="T3" s="32"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1014,17 +1058,27 @@
       <c r="K4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="25"/>
+      <c r="L4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="17">
+        <v>42528</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>40</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
+      <c r="R4" s="35" t="s">
+        <v>41</v>
+      </c>
       <c r="S4" s="29"/>
       <c r="T4" s="30"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A5" s="14"/>
       <c r="B5" s="18"/>
       <c r="C5" s="16"/>
@@ -1046,7 +1100,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="30"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A6" s="14"/>
       <c r="B6" s="18"/>
       <c r="C6" s="16"/>
@@ -1068,7 +1122,7 @@
       <c r="S6" s="29"/>
       <c r="T6" s="30"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A7" s="14"/>
       <c r="B7" s="18"/>
       <c r="C7" s="16"/>
@@ -1090,7 +1144,7 @@
       <c r="S7" s="29"/>
       <c r="T7" s="30"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A8" s="14"/>
       <c r="B8" s="18"/>
       <c r="C8" s="16"/>
@@ -1112,7 +1166,7 @@
       <c r="S8" s="29"/>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A9" s="14"/>
       <c r="B9" s="18"/>
       <c r="C9" s="16"/>
@@ -1134,7 +1188,7 @@
       <c r="S9" s="29"/>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A10" s="14"/>
       <c r="B10" s="18"/>
       <c r="C10" s="16"/>
@@ -1156,7 +1210,7 @@
       <c r="S10" s="29"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A11" s="14"/>
       <c r="B11" s="18"/>
       <c r="C11" s="16"/>
@@ -1178,7 +1232,7 @@
       <c r="S11" s="29"/>
       <c r="T11" s="30"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A12" s="14"/>
       <c r="B12" s="18"/>
       <c r="C12" s="16"/>
@@ -1200,7 +1254,7 @@
       <c r="S12" s="29"/>
       <c r="T12" s="30"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A13" s="14"/>
       <c r="B13" s="18"/>
       <c r="C13" s="16"/>
@@ -1222,7 +1276,7 @@
       <c r="S13" s="29"/>
       <c r="T13" s="30"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A14" s="14"/>
       <c r="B14" s="18"/>
       <c r="C14" s="16"/>
@@ -1244,7 +1298,7 @@
       <c r="S14" s="29"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A15" s="14"/>
       <c r="B15" s="18"/>
       <c r="C15" s="16"/>
@@ -1266,7 +1320,7 @@
       <c r="S15" s="29"/>
       <c r="T15" s="30"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A16" s="14"/>
       <c r="B16" s="18"/>
       <c r="C16" s="16"/>
@@ -1288,7 +1342,7 @@
       <c r="S16" s="29"/>
       <c r="T16" s="30"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A17" s="14"/>
       <c r="B17" s="18"/>
       <c r="C17" s="16"/>
@@ -1310,7 +1364,7 @@
       <c r="S17" s="29"/>
       <c r="T17" s="30"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="14"/>
       <c r="B18" s="18"/>
       <c r="C18" s="16"/>
@@ -1332,7 +1386,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A19" s="14"/>
       <c r="B19" s="18"/>
       <c r="C19" s="16"/>
@@ -1354,7 +1408,7 @@
       <c r="S19" s="29"/>
       <c r="T19" s="30"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A20" s="14"/>
       <c r="B20" s="18"/>
       <c r="C20" s="16"/>
@@ -1376,7 +1430,7 @@
       <c r="S20" s="29"/>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A21" s="14"/>
       <c r="B21" s="18"/>
       <c r="C21" s="16"/>
@@ -1398,7 +1452,7 @@
       <c r="S21" s="29"/>
       <c r="T21" s="30"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A22" s="14"/>
       <c r="B22" s="18"/>
       <c r="C22" s="16"/>
@@ -1420,7 +1474,7 @@
       <c r="S22" s="29"/>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A23" s="14"/>
       <c r="B23" s="18"/>
       <c r="C23" s="16"/>
@@ -1442,7 +1496,7 @@
       <c r="S23" s="29"/>
       <c r="T23" s="30"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
@@ -1464,7 +1518,7 @@
       <c r="S24" s="29"/>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A25" s="14"/>
       <c r="B25" s="18"/>
       <c r="C25" s="16"/>
@@ -1486,7 +1540,7 @@
       <c r="S25" s="29"/>
       <c r="T25" s="30"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A26" s="14"/>
       <c r="B26" s="18"/>
       <c r="C26" s="16"/>
@@ -1508,7 +1562,7 @@
       <c r="S26" s="29"/>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A27" s="14"/>
       <c r="B27" s="18"/>
       <c r="C27" s="16"/>
@@ -1530,7 +1584,7 @@
       <c r="S27" s="29"/>
       <c r="T27" s="30"/>
     </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A28" s="14"/>
       <c r="B28" s="18"/>
       <c r="C28" s="16"/>
@@ -1552,7 +1606,7 @@
       <c r="S28" s="29"/>
       <c r="T28" s="30"/>
     </row>
-    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A29" s="14"/>
       <c r="B29" s="18"/>
       <c r="C29" s="16"/>
@@ -1574,7 +1628,7 @@
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
     </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A30" s="14"/>
       <c r="B30" s="18"/>
       <c r="C30" s="16"/>
@@ -1596,7 +1650,7 @@
       <c r="S30" s="29"/>
       <c r="T30" s="30"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A31" s="14"/>
       <c r="B31" s="18"/>
       <c r="C31" s="16"/>
@@ -1618,7 +1672,7 @@
       <c r="S31" s="29"/>
       <c r="T31" s="30"/>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A32" s="14"/>
       <c r="B32" s="18"/>
       <c r="C32" s="16"/>
@@ -1640,7 +1694,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="30"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A33" s="14"/>
       <c r="B33" s="18"/>
       <c r="C33" s="16"/>
@@ -1662,7 +1716,7 @@
       <c r="S33" s="29"/>
       <c r="T33" s="30"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A34" s="14"/>
       <c r="B34" s="18"/>
       <c r="C34" s="16"/>
@@ -1684,7 +1738,7 @@
       <c r="S34" s="29"/>
       <c r="T34" s="30"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A35" s="14"/>
       <c r="B35" s="18"/>
       <c r="C35" s="16"/>
@@ -1706,7 +1760,7 @@
       <c r="S35" s="29"/>
       <c r="T35" s="30"/>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A36" s="14"/>
       <c r="B36" s="18"/>
       <c r="C36" s="16"/>
@@ -1728,7 +1782,7 @@
       <c r="S36" s="29"/>
       <c r="T36" s="30"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="19"/>
@@ -1750,7 +1804,7 @@
       <c r="S37" s="20"/>
       <c r="T37" s="30"/>
     </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="19"/>
@@ -1772,7 +1826,7 @@
       <c r="S38" s="20"/>
       <c r="T38" s="30"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" ht="16.5">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="22"/>
@@ -1793,7 +1847,7 @@
       <c r="R39" s="22"/>
       <c r="S39" s="23"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" ht="16.5">
       <c r="A40" s="22"/>
       <c r="B40" s="23"/>
       <c r="C40" s="22"/>
@@ -1814,7 +1868,7 @@
       <c r="R40" s="22"/>
       <c r="S40" s="23"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" ht="16.5">
       <c r="A41" s="22"/>
       <c r="B41" s="23"/>
       <c r="C41" s="22"/>
@@ -1835,7 +1889,7 @@
       <c r="R41" s="22"/>
       <c r="S41" s="23"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" ht="16.5">
       <c r="A42" s="22"/>
       <c r="B42" s="23"/>
       <c r="C42" s="22"/>
@@ -1856,7 +1910,7 @@
       <c r="R42" s="22"/>
       <c r="S42" s="23"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" ht="16.5">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="22"/>
@@ -1877,7 +1931,7 @@
       <c r="R43" s="22"/>
       <c r="S43" s="23"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" ht="16.5">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="22"/>
@@ -1898,7 +1952,7 @@
       <c r="R44" s="22"/>
       <c r="S44" s="23"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" ht="16.5">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="22"/>
@@ -1919,7 +1973,7 @@
       <c r="R45" s="22"/>
       <c r="S45" s="23"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" ht="16.5">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="22"/>
@@ -1940,7 +1994,7 @@
       <c r="R46" s="22"/>
       <c r="S46" s="23"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" ht="16.5">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="22"/>
@@ -1961,7 +2015,7 @@
       <c r="R47" s="22"/>
       <c r="S47" s="23"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" ht="16.5">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="22"/>
@@ -1982,7 +2036,7 @@
       <c r="R48" s="22"/>
       <c r="S48" s="23"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="22"/>
@@ -2003,7 +2057,7 @@
       <c r="R49" s="22"/>
       <c r="S49" s="23"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="22"/>
@@ -2024,7 +2078,7 @@
       <c r="R50" s="22"/>
       <c r="S50" s="23"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="22"/>
@@ -2045,7 +2099,7 @@
       <c r="R51" s="22"/>
       <c r="S51" s="23"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="22"/>
@@ -2066,7 +2120,7 @@
       <c r="R52" s="22"/>
       <c r="S52" s="23"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="22"/>
@@ -2087,7 +2141,7 @@
       <c r="R53" s="22"/>
       <c r="S53" s="23"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="22"/>
@@ -2108,7 +2162,7 @@
       <c r="R54" s="22"/>
       <c r="S54" s="23"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="22"/>
@@ -2129,7 +2183,7 @@
       <c r="R55" s="22"/>
       <c r="S55" s="23"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="22"/>
@@ -2150,7 +2204,7 @@
       <c r="R56" s="22"/>
       <c r="S56" s="23"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="22"/>
@@ -2171,7 +2225,7 @@
       <c r="R57" s="22"/>
       <c r="S57" s="23"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="22"/>
@@ -2192,7 +2246,7 @@
       <c r="R58" s="22"/>
       <c r="S58" s="23"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="22"/>
@@ -2213,7 +2267,7 @@
       <c r="R59" s="22"/>
       <c r="S59" s="23"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="22"/>
@@ -2234,7 +2288,7 @@
       <c r="R60" s="22"/>
       <c r="S60" s="23"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="22"/>
@@ -2255,7 +2309,7 @@
       <c r="R61" s="22"/>
       <c r="S61" s="23"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="22"/>
       <c r="B62" s="23"/>
       <c r="C62" s="22"/>
@@ -2276,7 +2330,7 @@
       <c r="R62" s="22"/>
       <c r="S62" s="23"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="22"/>
       <c r="B63" s="23"/>
       <c r="C63" s="22"/>
@@ -2297,7 +2351,7 @@
       <c r="R63" s="22"/>
       <c r="S63" s="23"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="22"/>
       <c r="B64" s="23"/>
       <c r="C64" s="22"/>
@@ -2318,7 +2372,7 @@
       <c r="R64" s="22"/>
       <c r="S64" s="23"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="22"/>
       <c r="B65" s="23"/>
       <c r="C65" s="22"/>
@@ -2339,7 +2393,7 @@
       <c r="R65" s="22"/>
       <c r="S65" s="23"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="22"/>
       <c r="B66" s="23"/>
       <c r="C66" s="22"/>
@@ -2360,7 +2414,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="23"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="22"/>
       <c r="B67" s="23"/>
       <c r="C67" s="22"/>
@@ -2381,7 +2435,7 @@
       <c r="R67" s="22"/>
       <c r="S67" s="23"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="22"/>
       <c r="B68" s="23"/>
       <c r="C68" s="22"/>
@@ -2402,7 +2456,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="23"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="22"/>
       <c r="B69" s="23"/>
       <c r="C69" s="22"/>
@@ -2423,7 +2477,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="23"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="22"/>
       <c r="B70" s="23"/>
       <c r="C70" s="22"/>
@@ -2444,7 +2498,7 @@
       <c r="R70" s="22"/>
       <c r="S70" s="23"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="22"/>
       <c r="B71" s="23"/>
       <c r="C71" s="22"/>
@@ -2465,7 +2519,7 @@
       <c r="R71" s="22"/>
       <c r="S71" s="23"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="22"/>
       <c r="B72" s="23"/>
       <c r="C72" s="22"/>
@@ -2486,7 +2540,7 @@
       <c r="R72" s="22"/>
       <c r="S72" s="23"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="22"/>
       <c r="B73" s="23"/>
       <c r="C73" s="22"/>
@@ -2507,7 +2561,7 @@
       <c r="R73" s="22"/>
       <c r="S73" s="23"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="22"/>
       <c r="B74" s="23"/>
       <c r="C74" s="22"/>
@@ -2528,7 +2582,7 @@
       <c r="R74" s="22"/>
       <c r="S74" s="23"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="22"/>
       <c r="B75" s="23"/>
       <c r="C75" s="22"/>
@@ -2549,7 +2603,7 @@
       <c r="R75" s="22"/>
       <c r="S75" s="23"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="22"/>
       <c r="B76" s="23"/>
       <c r="C76" s="22"/>
@@ -2570,7 +2624,7 @@
       <c r="R76" s="22"/>
       <c r="S76" s="23"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="22"/>
       <c r="B77" s="23"/>
       <c r="C77" s="22"/>
@@ -2591,7 +2645,7 @@
       <c r="R77" s="22"/>
       <c r="S77" s="23"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="22"/>
       <c r="B78" s="23"/>
       <c r="C78" s="22"/>
@@ -2612,7 +2666,7 @@
       <c r="R78" s="22"/>
       <c r="S78" s="23"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
       <c r="C79" s="22"/>
@@ -2633,7 +2687,7 @@
       <c r="R79" s="22"/>
       <c r="S79" s="23"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="22"/>
       <c r="B80" s="23"/>
       <c r="C80" s="22"/>
@@ -2654,7 +2708,7 @@
       <c r="R80" s="22"/>
       <c r="S80" s="23"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="22"/>
       <c r="B81" s="23"/>
       <c r="C81" s="22"/>
@@ -2675,7 +2729,7 @@
       <c r="R81" s="22"/>
       <c r="S81" s="23"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="22"/>
       <c r="B82" s="23"/>
       <c r="C82" s="22"/>
@@ -2696,7 +2750,7 @@
       <c r="R82" s="22"/>
       <c r="S82" s="23"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="22"/>
       <c r="B83" s="23"/>
       <c r="C83" s="22"/>
@@ -2717,7 +2771,7 @@
       <c r="R83" s="22"/>
       <c r="S83" s="23"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="22"/>
       <c r="B84" s="23"/>
       <c r="C84" s="22"/>
@@ -2738,7 +2792,7 @@
       <c r="R84" s="22"/>
       <c r="S84" s="23"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="22"/>
       <c r="B85" s="23"/>
       <c r="C85" s="22"/>
@@ -2759,7 +2813,7 @@
       <c r="R85" s="22"/>
       <c r="S85" s="23"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="22"/>
       <c r="B86" s="23"/>
       <c r="C86" s="22"/>
@@ -2780,7 +2834,7 @@
       <c r="R86" s="22"/>
       <c r="S86" s="23"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="22"/>
       <c r="B87" s="23"/>
       <c r="C87" s="22"/>
@@ -2801,7 +2855,7 @@
       <c r="R87" s="22"/>
       <c r="S87" s="23"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="22"/>
       <c r="B88" s="23"/>
       <c r="C88" s="22"/>
@@ -2822,7 +2876,7 @@
       <c r="R88" s="22"/>
       <c r="S88" s="23"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="22"/>
       <c r="B89" s="23"/>
       <c r="C89" s="22"/>
@@ -2843,7 +2897,7 @@
       <c r="R89" s="22"/>
       <c r="S89" s="23"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="22"/>
       <c r="B90" s="23"/>
       <c r="C90" s="22"/>
@@ -2864,7 +2918,7 @@
       <c r="R90" s="22"/>
       <c r="S90" s="23"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="22"/>
       <c r="B91" s="23"/>
       <c r="C91" s="22"/>
@@ -2885,7 +2939,7 @@
       <c r="R91" s="22"/>
       <c r="S91" s="23"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="22"/>
       <c r="B92" s="23"/>
       <c r="C92" s="22"/>
@@ -2906,7 +2960,7 @@
       <c r="R92" s="22"/>
       <c r="S92" s="23"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="22"/>
       <c r="B93" s="23"/>
       <c r="C93" s="22"/>
@@ -2927,7 +2981,7 @@
       <c r="R93" s="22"/>
       <c r="S93" s="23"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" ht="16.5">
       <c r="A94" s="22"/>
       <c r="B94" s="23"/>
       <c r="C94" s="22"/>
@@ -2948,7 +3002,7 @@
       <c r="R94" s="22"/>
       <c r="S94" s="23"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" ht="16.5">
       <c r="A95" s="22"/>
       <c r="B95" s="23"/>
       <c r="C95" s="22"/>
@@ -2969,7 +3023,7 @@
       <c r="R95" s="22"/>
       <c r="S95" s="23"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="16.5">
       <c r="A96" s="22"/>
       <c r="B96" s="23"/>
       <c r="C96" s="22"/>
@@ -2990,7 +3044,7 @@
       <c r="R96" s="22"/>
       <c r="S96" s="23"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" ht="16.5">
       <c r="A97" s="22"/>
       <c r="B97" s="23"/>
       <c r="C97" s="22"/>
@@ -3011,7 +3065,7 @@
       <c r="R97" s="22"/>
       <c r="S97" s="23"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" ht="16.5">
       <c r="A98" s="22"/>
       <c r="B98" s="23"/>
       <c r="C98" s="22"/>
@@ -3032,7 +3086,7 @@
       <c r="R98" s="22"/>
       <c r="S98" s="23"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19" ht="16.5">
       <c r="A99" s="22"/>
       <c r="B99" s="23"/>
       <c r="C99" s="22"/>
@@ -3053,7 +3107,7 @@
       <c r="R99" s="22"/>
       <c r="S99" s="23"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="22"/>
       <c r="B100" s="23"/>
       <c r="C100" s="22"/>
@@ -3074,7 +3128,7 @@
       <c r="R100" s="22"/>
       <c r="S100" s="23"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="22"/>
       <c r="B101" s="23"/>
       <c r="C101" s="22"/>
@@ -3095,7 +3149,7 @@
       <c r="R101" s="22"/>
       <c r="S101" s="23"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="22"/>
       <c r="B102" s="23"/>
       <c r="C102" s="22"/>
@@ -3116,7 +3170,7 @@
       <c r="R102" s="22"/>
       <c r="S102" s="23"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="22"/>
       <c r="B103" s="23"/>
       <c r="C103" s="22"/>
@@ -3137,7 +3191,7 @@
       <c r="R103" s="22"/>
       <c r="S103" s="23"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="22"/>
       <c r="B104" s="23"/>
       <c r="C104" s="22"/>
@@ -3158,7 +3212,7 @@
       <c r="R104" s="22"/>
       <c r="S104" s="23"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="22"/>
       <c r="B105" s="23"/>
       <c r="C105" s="22"/>
@@ -3179,7 +3233,7 @@
       <c r="R105" s="22"/>
       <c r="S105" s="23"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="22"/>
       <c r="B106" s="23"/>
       <c r="C106" s="22"/>
@@ -3200,7 +3254,7 @@
       <c r="R106" s="22"/>
       <c r="S106" s="23"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="22"/>
       <c r="B107" s="23"/>
       <c r="C107" s="22"/>
@@ -3221,7 +3275,7 @@
       <c r="R107" s="22"/>
       <c r="S107" s="23"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="22"/>
       <c r="B108" s="23"/>
       <c r="C108" s="22"/>
@@ -3242,7 +3296,7 @@
       <c r="R108" s="22"/>
       <c r="S108" s="23"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="22"/>
       <c r="B109" s="23"/>
       <c r="C109" s="22"/>
@@ -3263,7 +3317,7 @@
       <c r="R109" s="22"/>
       <c r="S109" s="23"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="22"/>
       <c r="B110" s="23"/>
       <c r="C110" s="22"/>
@@ -3284,7 +3338,7 @@
       <c r="R110" s="22"/>
       <c r="S110" s="23"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="22"/>
       <c r="B111" s="23"/>
       <c r="C111" s="22"/>
@@ -3305,7 +3359,7 @@
       <c r="R111" s="22"/>
       <c r="S111" s="23"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="22"/>
       <c r="B112" s="23"/>
       <c r="C112" s="22"/>
@@ -3326,7 +3380,7 @@
       <c r="R112" s="22"/>
       <c r="S112" s="23"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="22"/>
       <c r="B113" s="23"/>
       <c r="C113" s="22"/>
@@ -3347,7 +3401,7 @@
       <c r="R113" s="22"/>
       <c r="S113" s="23"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="22"/>
       <c r="B114" s="23"/>
       <c r="C114" s="22"/>
@@ -3368,7 +3422,7 @@
       <c r="R114" s="22"/>
       <c r="S114" s="23"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="22"/>
       <c r="B115" s="23"/>
       <c r="C115" s="22"/>
@@ -3389,7 +3443,7 @@
       <c r="R115" s="22"/>
       <c r="S115" s="23"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="22"/>
       <c r="B116" s="23"/>
       <c r="C116" s="22"/>
@@ -3410,7 +3464,7 @@
       <c r="R116" s="22"/>
       <c r="S116" s="23"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="22"/>
       <c r="B117" s="23"/>
       <c r="C117" s="22"/>
@@ -3431,7 +3485,7 @@
       <c r="R117" s="22"/>
       <c r="S117" s="23"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="22"/>
       <c r="B118" s="23"/>
       <c r="C118" s="22"/>
@@ -3452,7 +3506,7 @@
       <c r="R118" s="22"/>
       <c r="S118" s="23"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="22"/>
       <c r="B119" s="23"/>
       <c r="C119" s="22"/>
@@ -3473,7 +3527,7 @@
       <c r="R119" s="22"/>
       <c r="S119" s="23"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="22"/>
       <c r="B120" s="23"/>
       <c r="C120" s="22"/>
@@ -3494,7 +3548,7 @@
       <c r="R120" s="22"/>
       <c r="S120" s="23"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="22"/>
       <c r="B121" s="23"/>
       <c r="C121" s="22"/>
@@ -3515,7 +3569,7 @@
       <c r="R121" s="22"/>
       <c r="S121" s="23"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="22"/>
       <c r="B122" s="23"/>
       <c r="C122" s="22"/>
@@ -3536,7 +3590,7 @@
       <c r="R122" s="22"/>
       <c r="S122" s="23"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="22"/>
       <c r="B123" s="23"/>
       <c r="C123" s="22"/>
@@ -3557,7 +3611,7 @@
       <c r="R123" s="22"/>
       <c r="S123" s="23"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="22"/>
       <c r="B124" s="23"/>
       <c r="C124" s="22"/>
@@ -3578,7 +3632,7 @@
       <c r="R124" s="22"/>
       <c r="S124" s="23"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="22"/>
       <c r="B125" s="23"/>
       <c r="C125" s="22"/>
@@ -3599,7 +3653,7 @@
       <c r="R125" s="22"/>
       <c r="S125" s="23"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="22"/>
       <c r="B126" s="23"/>
       <c r="C126" s="22"/>
@@ -3620,7 +3674,7 @@
       <c r="R126" s="22"/>
       <c r="S126" s="23"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="22"/>
       <c r="B127" s="23"/>
       <c r="C127" s="22"/>
@@ -3641,7 +3695,7 @@
       <c r="R127" s="22"/>
       <c r="S127" s="23"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="22"/>
       <c r="B128" s="23"/>
       <c r="C128" s="22"/>
@@ -3662,7 +3716,7 @@
       <c r="R128" s="22"/>
       <c r="S128" s="23"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="22"/>
       <c r="B129" s="23"/>
       <c r="C129" s="22"/>
@@ -3683,7 +3737,7 @@
       <c r="R129" s="22"/>
       <c r="S129" s="23"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="22"/>
       <c r="B130" s="23"/>
       <c r="C130" s="22"/>
@@ -3704,7 +3758,7 @@
       <c r="R130" s="22"/>
       <c r="S130" s="23"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="22"/>
       <c r="B131" s="23"/>
       <c r="C131" s="22"/>
@@ -3725,7 +3779,7 @@
       <c r="R131" s="22"/>
       <c r="S131" s="23"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="22"/>
       <c r="B132" s="23"/>
       <c r="C132" s="22"/>
@@ -3746,7 +3800,7 @@
       <c r="R132" s="22"/>
       <c r="S132" s="23"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="22"/>
       <c r="B133" s="23"/>
       <c r="C133" s="22"/>
@@ -3767,7 +3821,7 @@
       <c r="R133" s="22"/>
       <c r="S133" s="23"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="22"/>
       <c r="B134" s="23"/>
       <c r="C134" s="22"/>
@@ -3788,7 +3842,7 @@
       <c r="R134" s="22"/>
       <c r="S134" s="23"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="22"/>
       <c r="B135" s="23"/>
       <c r="C135" s="22"/>
@@ -3809,7 +3863,7 @@
       <c r="R135" s="22"/>
       <c r="S135" s="23"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="22"/>
       <c r="B136" s="23"/>
       <c r="C136" s="22"/>
@@ -3830,7 +3884,7 @@
       <c r="R136" s="22"/>
       <c r="S136" s="23"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="22"/>
       <c r="B137" s="23"/>
       <c r="C137" s="22"/>
@@ -3851,7 +3905,7 @@
       <c r="R137" s="22"/>
       <c r="S137" s="23"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="22"/>
       <c r="B138" s="23"/>
       <c r="C138" s="22"/>
@@ -3872,7 +3926,7 @@
       <c r="R138" s="22"/>
       <c r="S138" s="23"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="22"/>
       <c r="B139" s="23"/>
       <c r="C139" s="22"/>
@@ -3893,7 +3947,7 @@
       <c r="R139" s="22"/>
       <c r="S139" s="23"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="22"/>
       <c r="B140" s="23"/>
       <c r="C140" s="22"/>
@@ -3914,7 +3968,7 @@
       <c r="R140" s="22"/>
       <c r="S140" s="23"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="22"/>
       <c r="B141" s="23"/>
       <c r="C141" s="22"/>
@@ -3935,7 +3989,7 @@
       <c r="R141" s="22"/>
       <c r="S141" s="23"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="22"/>
       <c r="B142" s="23"/>
       <c r="C142" s="22"/>
@@ -3956,7 +4010,7 @@
       <c r="R142" s="22"/>
       <c r="S142" s="23"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="22"/>
       <c r="B143" s="23"/>
       <c r="C143" s="22"/>
@@ -3977,7 +4031,7 @@
       <c r="R143" s="22"/>
       <c r="S143" s="23"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="22"/>
       <c r="B144" s="23"/>
       <c r="C144" s="22"/>
@@ -3998,7 +4052,7 @@
       <c r="R144" s="22"/>
       <c r="S144" s="23"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="22"/>
       <c r="B145" s="23"/>
       <c r="C145" s="22"/>
@@ -4019,7 +4073,7 @@
       <c r="R145" s="22"/>
       <c r="S145" s="23"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="22"/>
       <c r="B146" s="23"/>
       <c r="C146" s="22"/>
@@ -4040,7 +4094,7 @@
       <c r="R146" s="22"/>
       <c r="S146" s="23"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="22"/>
       <c r="B147" s="23"/>
       <c r="C147" s="22"/>
@@ -4061,7 +4115,7 @@
       <c r="R147" s="22"/>
       <c r="S147" s="23"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="22"/>
       <c r="B148" s="23"/>
       <c r="C148" s="22"/>
@@ -4082,7 +4136,7 @@
       <c r="R148" s="22"/>
       <c r="S148" s="23"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="22"/>
       <c r="B149" s="23"/>
       <c r="C149" s="22"/>
@@ -4103,7 +4157,7 @@
       <c r="R149" s="22"/>
       <c r="S149" s="23"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="22"/>
       <c r="B150" s="23"/>
       <c r="C150" s="22"/>
@@ -4124,7 +4178,7 @@
       <c r="R150" s="22"/>
       <c r="S150" s="23"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="22"/>
       <c r="B151" s="23"/>
       <c r="C151" s="22"/>
@@ -4145,7 +4199,7 @@
       <c r="R151" s="22"/>
       <c r="S151" s="23"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="22"/>
       <c r="B152" s="23"/>
       <c r="C152" s="22"/>
@@ -4166,7 +4220,7 @@
       <c r="R152" s="22"/>
       <c r="S152" s="23"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="22"/>
       <c r="B153" s="23"/>
       <c r="C153" s="22"/>
@@ -4187,7 +4241,7 @@
       <c r="R153" s="22"/>
       <c r="S153" s="23"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="22"/>
       <c r="B154" s="23"/>
       <c r="C154" s="22"/>
@@ -4208,7 +4262,7 @@
       <c r="R154" s="22"/>
       <c r="S154" s="23"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="22"/>
       <c r="B155" s="23"/>
       <c r="C155" s="22"/>
@@ -4229,7 +4283,7 @@
       <c r="R155" s="22"/>
       <c r="S155" s="23"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="22"/>
       <c r="B156" s="23"/>
       <c r="C156" s="22"/>
@@ -4250,7 +4304,7 @@
       <c r="R156" s="22"/>
       <c r="S156" s="23"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="22"/>
       <c r="B157" s="23"/>
       <c r="C157" s="22"/>
@@ -4271,7 +4325,7 @@
       <c r="R157" s="22"/>
       <c r="S157" s="23"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="22"/>
       <c r="B158" s="23"/>
       <c r="C158" s="22"/>
@@ -4292,7 +4346,7 @@
       <c r="R158" s="22"/>
       <c r="S158" s="23"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="22"/>
       <c r="B159" s="23"/>
       <c r="C159" s="22"/>
@@ -4313,7 +4367,7 @@
       <c r="R159" s="22"/>
       <c r="S159" s="23"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="22"/>
       <c r="B160" s="23"/>
       <c r="C160" s="22"/>
@@ -4331,7 +4385,7 @@
       <c r="O160" s="23"/>
       <c r="S160" s="23"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="22"/>
       <c r="B161" s="23"/>
       <c r="C161" s="22"/>
@@ -4349,7 +4403,7 @@
       <c r="O161" s="23"/>
       <c r="S161" s="23"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="22"/>
       <c r="B162" s="23"/>
       <c r="C162" s="22"/>
@@ -4367,7 +4421,7 @@
       <c r="O162" s="23"/>
       <c r="S162" s="23"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="22"/>
       <c r="B163" s="23"/>
       <c r="C163" s="22"/>
@@ -4385,7 +4439,7 @@
       <c r="O163" s="23"/>
       <c r="S163" s="23"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="22"/>
       <c r="B164" s="23"/>
       <c r="C164" s="22"/>
@@ -4403,7 +4457,7 @@
       <c r="O164" s="23"/>
       <c r="S164" s="23"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="22"/>
       <c r="B165" s="23"/>
       <c r="C165" s="22"/>
@@ -4421,7 +4475,7 @@
       <c r="O165" s="23"/>
       <c r="S165" s="23"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="22"/>
       <c r="B166" s="23"/>
       <c r="C166" s="22"/>
@@ -4439,7 +4493,7 @@
       <c r="O166" s="23"/>
       <c r="S166" s="23"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="22"/>
       <c r="B167" s="23"/>
       <c r="C167" s="22"/>
@@ -4457,7 +4511,7 @@
       <c r="O167" s="23"/>
       <c r="S167" s="23"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="22"/>
       <c r="B168" s="23"/>
       <c r="C168" s="22"/>
@@ -4475,7 +4529,7 @@
       <c r="O168" s="23"/>
       <c r="S168" s="23"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="22"/>
       <c r="B169" s="23"/>
       <c r="C169" s="22"/>
@@ -4493,7 +4547,7 @@
       <c r="O169" s="23"/>
       <c r="S169" s="23"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="22"/>
       <c r="B170" s="23"/>
       <c r="C170" s="22"/>
@@ -4511,7 +4565,7 @@
       <c r="O170" s="23"/>
       <c r="S170" s="23"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="22"/>
       <c r="B171" s="23"/>
       <c r="C171" s="22"/>
@@ -4529,7 +4583,7 @@
       <c r="O171" s="23"/>
       <c r="S171" s="23"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="22"/>
       <c r="B172" s="23"/>
       <c r="C172" s="22"/>
@@ -4547,7 +4601,7 @@
       <c r="O172" s="23"/>
       <c r="S172" s="23"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="22"/>
       <c r="B173" s="23"/>
       <c r="C173" s="22"/>
@@ -4565,7 +4619,7 @@
       <c r="O173" s="23"/>
       <c r="S173" s="23"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="22"/>
       <c r="B174" s="23"/>
       <c r="C174" s="22"/>
@@ -4583,7 +4637,7 @@
       <c r="O174" s="23"/>
       <c r="S174" s="23"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="22"/>
       <c r="B175" s="23"/>
       <c r="C175" s="22"/>
@@ -4601,7 +4655,7 @@
       <c r="O175" s="23"/>
       <c r="S175" s="23"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="22"/>
       <c r="B176" s="23"/>
       <c r="C176" s="22"/>
@@ -4619,7 +4673,7 @@
       <c r="O176" s="23"/>
       <c r="S176" s="23"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="22"/>
       <c r="B177" s="23"/>
       <c r="C177" s="22"/>
@@ -4637,7 +4691,7 @@
       <c r="O177" s="23"/>
       <c r="S177" s="23"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="22"/>
       <c r="B178" s="23"/>
       <c r="C178" s="22"/>
@@ -4655,7 +4709,7 @@
       <c r="O178" s="23"/>
       <c r="S178" s="23"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="22"/>
       <c r="B179" s="23"/>
       <c r="C179" s="22"/>
@@ -4673,7 +4727,7 @@
       <c r="O179" s="23"/>
       <c r="S179" s="23"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="22"/>
       <c r="B180" s="23"/>
       <c r="C180" s="22"/>
@@ -4691,7 +4745,7 @@
       <c r="O180" s="23"/>
       <c r="S180" s="23"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="22"/>
       <c r="B181" s="23"/>
       <c r="C181" s="22"/>
@@ -4709,7 +4763,7 @@
       <c r="O181" s="23"/>
       <c r="S181" s="23"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="22"/>
       <c r="B182" s="23"/>
       <c r="C182" s="22"/>
@@ -4727,7 +4781,7 @@
       <c r="O182" s="23"/>
       <c r="S182" s="23"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="22"/>
       <c r="B183" s="23"/>
       <c r="C183" s="22"/>
@@ -4745,7 +4799,7 @@
       <c r="O183" s="23"/>
       <c r="S183" s="23"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19">
       <c r="A184" s="22"/>
       <c r="B184" s="23"/>
       <c r="C184" s="22"/>
@@ -4763,7 +4817,7 @@
       <c r="O184" s="23"/>
       <c r="S184" s="23"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19">
       <c r="A185" s="22"/>
       <c r="B185" s="23"/>
       <c r="C185" s="22"/>
@@ -4781,7 +4835,7 @@
       <c r="O185" s="23"/>
       <c r="S185" s="23"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19">
       <c r="A186" s="22"/>
       <c r="B186" s="23"/>
       <c r="C186" s="22"/>
@@ -4799,7 +4853,7 @@
       <c r="O186" s="23"/>
       <c r="S186" s="23"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19">
       <c r="A187" s="22"/>
       <c r="B187" s="23"/>
       <c r="C187" s="22"/>
@@ -4817,7 +4871,7 @@
       <c r="O187" s="23"/>
       <c r="S187" s="23"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19">
       <c r="A188" s="22"/>
       <c r="B188" s="23"/>
       <c r="C188" s="22"/>
@@ -4835,7 +4889,7 @@
       <c r="O188" s="23"/>
       <c r="S188" s="23"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19">
       <c r="A189" s="22"/>
       <c r="B189" s="23"/>
       <c r="C189" s="22"/>
@@ -4853,7 +4907,7 @@
       <c r="O189" s="23"/>
       <c r="S189" s="23"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19">
       <c r="A190" s="22"/>
       <c r="B190" s="23"/>
       <c r="C190" s="22"/>
@@ -4871,7 +4925,7 @@
       <c r="O190" s="23"/>
       <c r="S190" s="23"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:19">
       <c r="A191" s="22"/>
       <c r="B191" s="23"/>
       <c r="C191" s="22"/>
@@ -4889,7 +4943,7 @@
       <c r="O191" s="23"/>
       <c r="S191" s="23"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:19">
       <c r="A192" s="22"/>
       <c r="B192" s="23"/>
       <c r="C192" s="22"/>
@@ -4907,7 +4961,7 @@
       <c r="O192" s="23"/>
       <c r="S192" s="23"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:19">
       <c r="A193" s="22"/>
       <c r="B193" s="23"/>
       <c r="C193" s="22"/>
@@ -4925,7 +4979,7 @@
       <c r="O193" s="23"/>
       <c r="S193" s="23"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:19">
       <c r="A194" s="22"/>
       <c r="B194" s="23"/>
       <c r="C194" s="22"/>
@@ -4952,14 +5006,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4970,7 +5024,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -4996,7 +5050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5006,7 +5060,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5016,7 +5070,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5026,7 +5080,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5036,7 +5090,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5046,7 +5100,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5056,7 +5110,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5066,7 +5120,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5076,7 +5130,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5086,7 +5140,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5096,7 +5150,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5106,7 +5160,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5116,7 +5170,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5126,7 +5180,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5136,7 +5190,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5146,7 +5200,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5156,7 +5210,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5166,7 +5220,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_EQ组.xlsx
+++ b/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_EQ组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitDoc\Mogo_Doc\VersionRecords\Version 3.1.4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>No</t>
   </si>
@@ -165,12 +170,28 @@
     <t>是</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>房东P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -830,14 +851,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="11" customWidth="1"/>
@@ -861,7 +882,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -920,7 +941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="36.75" customHeight="1">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -974,7 +995,7 @@
       </c>
       <c r="T2" s="30"/>
     </row>
-    <row r="3" spans="1:20" s="33" customFormat="1" ht="23.25" customHeight="1">
+    <row r="3" spans="1:20" s="33" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1026,7 +1047,7 @@
       <c r="S3" s="25"/>
       <c r="T3" s="32"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="33">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1036,8 +1057,8 @@
       <c r="C4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>31</v>
+      <c r="D4" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>20</v>
@@ -1078,7 +1099,7 @@
       <c r="S4" s="29"/>
       <c r="T4" s="30"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="14"/>
       <c r="B5" s="18"/>
       <c r="C5" s="16"/>
@@ -1100,7 +1121,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="30"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="18"/>
       <c r="C6" s="16"/>
@@ -1122,7 +1143,7 @@
       <c r="S6" s="29"/>
       <c r="T6" s="30"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="18"/>
       <c r="C7" s="16"/>
@@ -1144,7 +1165,7 @@
       <c r="S7" s="29"/>
       <c r="T7" s="30"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
       <c r="B8" s="18"/>
       <c r="C8" s="16"/>
@@ -1166,7 +1187,7 @@
       <c r="S8" s="29"/>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="18"/>
       <c r="C9" s="16"/>
@@ -1188,7 +1209,7 @@
       <c r="S9" s="29"/>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="18"/>
       <c r="C10" s="16"/>
@@ -1210,7 +1231,7 @@
       <c r="S10" s="29"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="18"/>
       <c r="C11" s="16"/>
@@ -1232,7 +1253,7 @@
       <c r="S11" s="29"/>
       <c r="T11" s="30"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="18"/>
       <c r="C12" s="16"/>
@@ -1254,7 +1275,7 @@
       <c r="S12" s="29"/>
       <c r="T12" s="30"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="18"/>
       <c r="C13" s="16"/>
@@ -1276,7 +1297,7 @@
       <c r="S13" s="29"/>
       <c r="T13" s="30"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="18"/>
       <c r="C14" s="16"/>
@@ -1298,7 +1319,7 @@
       <c r="S14" s="29"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="18"/>
       <c r="C15" s="16"/>
@@ -1320,7 +1341,7 @@
       <c r="S15" s="29"/>
       <c r="T15" s="30"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="18"/>
       <c r="C16" s="16"/>
@@ -1342,7 +1363,7 @@
       <c r="S16" s="29"/>
       <c r="T16" s="30"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="18"/>
       <c r="C17" s="16"/>
@@ -1364,7 +1385,7 @@
       <c r="S17" s="29"/>
       <c r="T17" s="30"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="18"/>
       <c r="C18" s="16"/>
@@ -1386,7 +1407,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="18"/>
       <c r="C19" s="16"/>
@@ -1408,7 +1429,7 @@
       <c r="S19" s="29"/>
       <c r="T19" s="30"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="18"/>
       <c r="C20" s="16"/>
@@ -1430,7 +1451,7 @@
       <c r="S20" s="29"/>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="18"/>
       <c r="C21" s="16"/>
@@ -1452,7 +1473,7 @@
       <c r="S21" s="29"/>
       <c r="T21" s="30"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="18"/>
       <c r="C22" s="16"/>
@@ -1474,7 +1495,7 @@
       <c r="S22" s="29"/>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="18"/>
       <c r="C23" s="16"/>
@@ -1496,7 +1517,7 @@
       <c r="S23" s="29"/>
       <c r="T23" s="30"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
@@ -1518,7 +1539,7 @@
       <c r="S24" s="29"/>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="18"/>
       <c r="C25" s="16"/>
@@ -1540,7 +1561,7 @@
       <c r="S25" s="29"/>
       <c r="T25" s="30"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="18"/>
       <c r="C26" s="16"/>
@@ -1562,7 +1583,7 @@
       <c r="S26" s="29"/>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="18"/>
       <c r="C27" s="16"/>
@@ -1584,7 +1605,7 @@
       <c r="S27" s="29"/>
       <c r="T27" s="30"/>
     </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="18"/>
       <c r="C28" s="16"/>
@@ -1606,7 +1627,7 @@
       <c r="S28" s="29"/>
       <c r="T28" s="30"/>
     </row>
-    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="18"/>
       <c r="C29" s="16"/>
@@ -1628,7 +1649,7 @@
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
     </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="18"/>
       <c r="C30" s="16"/>
@@ -1650,7 +1671,7 @@
       <c r="S30" s="29"/>
       <c r="T30" s="30"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="18"/>
       <c r="C31" s="16"/>
@@ -1672,7 +1693,7 @@
       <c r="S31" s="29"/>
       <c r="T31" s="30"/>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="18"/>
       <c r="C32" s="16"/>
@@ -1694,7 +1715,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="30"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="18"/>
       <c r="C33" s="16"/>
@@ -1716,7 +1737,7 @@
       <c r="S33" s="29"/>
       <c r="T33" s="30"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="18"/>
       <c r="C34" s="16"/>
@@ -1738,7 +1759,7 @@
       <c r="S34" s="29"/>
       <c r="T34" s="30"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="18"/>
       <c r="C35" s="16"/>
@@ -1760,7 +1781,7 @@
       <c r="S35" s="29"/>
       <c r="T35" s="30"/>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="18"/>
       <c r="C36" s="16"/>
@@ -1782,7 +1803,7 @@
       <c r="S36" s="29"/>
       <c r="T36" s="30"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="19"/>
@@ -1804,7 +1825,7 @@
       <c r="S37" s="20"/>
       <c r="T37" s="30"/>
     </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="19"/>
@@ -1826,7 +1847,7 @@
       <c r="S38" s="20"/>
       <c r="T38" s="30"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5">
+    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="22"/>
@@ -1847,7 +1868,7 @@
       <c r="R39" s="22"/>
       <c r="S39" s="23"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5">
+    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="22"/>
       <c r="B40" s="23"/>
       <c r="C40" s="22"/>
@@ -1868,7 +1889,7 @@
       <c r="R40" s="22"/>
       <c r="S40" s="23"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5">
+    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="22"/>
       <c r="B41" s="23"/>
       <c r="C41" s="22"/>
@@ -1889,7 +1910,7 @@
       <c r="R41" s="22"/>
       <c r="S41" s="23"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5">
+    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="22"/>
       <c r="B42" s="23"/>
       <c r="C42" s="22"/>
@@ -1910,7 +1931,7 @@
       <c r="R42" s="22"/>
       <c r="S42" s="23"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5">
+    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="22"/>
@@ -1931,7 +1952,7 @@
       <c r="R43" s="22"/>
       <c r="S43" s="23"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5">
+    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="22"/>
@@ -1952,7 +1973,7 @@
       <c r="R44" s="22"/>
       <c r="S44" s="23"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5">
+    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="22"/>
@@ -1973,7 +1994,7 @@
       <c r="R45" s="22"/>
       <c r="S45" s="23"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5">
+    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="22"/>
@@ -1994,7 +2015,7 @@
       <c r="R46" s="22"/>
       <c r="S46" s="23"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5">
+    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="22"/>
@@ -2015,7 +2036,7 @@
       <c r="R47" s="22"/>
       <c r="S47" s="23"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5">
+    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="22"/>
@@ -2036,7 +2057,7 @@
       <c r="R48" s="22"/>
       <c r="S48" s="23"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5">
+    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="22"/>
@@ -2057,7 +2078,7 @@
       <c r="R49" s="22"/>
       <c r="S49" s="23"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5">
+    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="22"/>
@@ -2078,7 +2099,7 @@
       <c r="R50" s="22"/>
       <c r="S50" s="23"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5">
+    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="22"/>
@@ -2099,7 +2120,7 @@
       <c r="R51" s="22"/>
       <c r="S51" s="23"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5">
+    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="22"/>
@@ -2120,7 +2141,7 @@
       <c r="R52" s="22"/>
       <c r="S52" s="23"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5">
+    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="22"/>
@@ -2141,7 +2162,7 @@
       <c r="R53" s="22"/>
       <c r="S53" s="23"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5">
+    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="22"/>
@@ -2162,7 +2183,7 @@
       <c r="R54" s="22"/>
       <c r="S54" s="23"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5">
+    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="22"/>
@@ -2183,7 +2204,7 @@
       <c r="R55" s="22"/>
       <c r="S55" s="23"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5">
+    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="22"/>
@@ -2204,7 +2225,7 @@
       <c r="R56" s="22"/>
       <c r="S56" s="23"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5">
+    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="22"/>
@@ -2225,7 +2246,7 @@
       <c r="R57" s="22"/>
       <c r="S57" s="23"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5">
+    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="22"/>
@@ -2246,7 +2267,7 @@
       <c r="R58" s="22"/>
       <c r="S58" s="23"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5">
+    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="22"/>
@@ -2267,7 +2288,7 @@
       <c r="R59" s="22"/>
       <c r="S59" s="23"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5">
+    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="22"/>
@@ -2288,7 +2309,7 @@
       <c r="R60" s="22"/>
       <c r="S60" s="23"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5">
+    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="22"/>
@@ -2309,7 +2330,7 @@
       <c r="R61" s="22"/>
       <c r="S61" s="23"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5">
+    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="22"/>
       <c r="B62" s="23"/>
       <c r="C62" s="22"/>
@@ -2330,7 +2351,7 @@
       <c r="R62" s="22"/>
       <c r="S62" s="23"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5">
+    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="22"/>
       <c r="B63" s="23"/>
       <c r="C63" s="22"/>
@@ -2351,7 +2372,7 @@
       <c r="R63" s="22"/>
       <c r="S63" s="23"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5">
+    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="22"/>
       <c r="B64" s="23"/>
       <c r="C64" s="22"/>
@@ -2372,7 +2393,7 @@
       <c r="R64" s="22"/>
       <c r="S64" s="23"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="22"/>
       <c r="B65" s="23"/>
       <c r="C65" s="22"/>
@@ -2393,7 +2414,7 @@
       <c r="R65" s="22"/>
       <c r="S65" s="23"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="22"/>
       <c r="B66" s="23"/>
       <c r="C66" s="22"/>
@@ -2414,7 +2435,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="23"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="22"/>
       <c r="B67" s="23"/>
       <c r="C67" s="22"/>
@@ -2435,7 +2456,7 @@
       <c r="R67" s="22"/>
       <c r="S67" s="23"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="22"/>
       <c r="B68" s="23"/>
       <c r="C68" s="22"/>
@@ -2456,7 +2477,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="23"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="22"/>
       <c r="B69" s="23"/>
       <c r="C69" s="22"/>
@@ -2477,7 +2498,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="23"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="22"/>
       <c r="B70" s="23"/>
       <c r="C70" s="22"/>
@@ -2498,7 +2519,7 @@
       <c r="R70" s="22"/>
       <c r="S70" s="23"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="22"/>
       <c r="B71" s="23"/>
       <c r="C71" s="22"/>
@@ -2519,7 +2540,7 @@
       <c r="R71" s="22"/>
       <c r="S71" s="23"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="22"/>
       <c r="B72" s="23"/>
       <c r="C72" s="22"/>
@@ -2540,7 +2561,7 @@
       <c r="R72" s="22"/>
       <c r="S72" s="23"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="22"/>
       <c r="B73" s="23"/>
       <c r="C73" s="22"/>
@@ -2561,7 +2582,7 @@
       <c r="R73" s="22"/>
       <c r="S73" s="23"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="22"/>
       <c r="B74" s="23"/>
       <c r="C74" s="22"/>
@@ -2582,7 +2603,7 @@
       <c r="R74" s="22"/>
       <c r="S74" s="23"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="22"/>
       <c r="B75" s="23"/>
       <c r="C75" s="22"/>
@@ -2603,7 +2624,7 @@
       <c r="R75" s="22"/>
       <c r="S75" s="23"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="22"/>
       <c r="B76" s="23"/>
       <c r="C76" s="22"/>
@@ -2624,7 +2645,7 @@
       <c r="R76" s="22"/>
       <c r="S76" s="23"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="22"/>
       <c r="B77" s="23"/>
       <c r="C77" s="22"/>
@@ -2645,7 +2666,7 @@
       <c r="R77" s="22"/>
       <c r="S77" s="23"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="22"/>
       <c r="B78" s="23"/>
       <c r="C78" s="22"/>
@@ -2666,7 +2687,7 @@
       <c r="R78" s="22"/>
       <c r="S78" s="23"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
       <c r="C79" s="22"/>
@@ -2687,7 +2708,7 @@
       <c r="R79" s="22"/>
       <c r="S79" s="23"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="22"/>
       <c r="B80" s="23"/>
       <c r="C80" s="22"/>
@@ -2708,7 +2729,7 @@
       <c r="R80" s="22"/>
       <c r="S80" s="23"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="22"/>
       <c r="B81" s="23"/>
       <c r="C81" s="22"/>
@@ -2729,7 +2750,7 @@
       <c r="R81" s="22"/>
       <c r="S81" s="23"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="22"/>
       <c r="B82" s="23"/>
       <c r="C82" s="22"/>
@@ -2750,7 +2771,7 @@
       <c r="R82" s="22"/>
       <c r="S82" s="23"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="22"/>
       <c r="B83" s="23"/>
       <c r="C83" s="22"/>
@@ -2771,7 +2792,7 @@
       <c r="R83" s="22"/>
       <c r="S83" s="23"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="22"/>
       <c r="B84" s="23"/>
       <c r="C84" s="22"/>
@@ -2792,7 +2813,7 @@
       <c r="R84" s="22"/>
       <c r="S84" s="23"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5">
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="22"/>
       <c r="B85" s="23"/>
       <c r="C85" s="22"/>
@@ -2813,7 +2834,7 @@
       <c r="R85" s="22"/>
       <c r="S85" s="23"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5">
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="22"/>
       <c r="B86" s="23"/>
       <c r="C86" s="22"/>
@@ -2834,7 +2855,7 @@
       <c r="R86" s="22"/>
       <c r="S86" s="23"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5">
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="22"/>
       <c r="B87" s="23"/>
       <c r="C87" s="22"/>
@@ -2855,7 +2876,7 @@
       <c r="R87" s="22"/>
       <c r="S87" s="23"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5">
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="22"/>
       <c r="B88" s="23"/>
       <c r="C88" s="22"/>
@@ -2876,7 +2897,7 @@
       <c r="R88" s="22"/>
       <c r="S88" s="23"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5">
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="22"/>
       <c r="B89" s="23"/>
       <c r="C89" s="22"/>
@@ -2897,7 +2918,7 @@
       <c r="R89" s="22"/>
       <c r="S89" s="23"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5">
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="22"/>
       <c r="B90" s="23"/>
       <c r="C90" s="22"/>
@@ -2918,7 +2939,7 @@
       <c r="R90" s="22"/>
       <c r="S90" s="23"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5">
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="22"/>
       <c r="B91" s="23"/>
       <c r="C91" s="22"/>
@@ -2939,7 +2960,7 @@
       <c r="R91" s="22"/>
       <c r="S91" s="23"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5">
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="22"/>
       <c r="B92" s="23"/>
       <c r="C92" s="22"/>
@@ -2960,7 +2981,7 @@
       <c r="R92" s="22"/>
       <c r="S92" s="23"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5">
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="22"/>
       <c r="B93" s="23"/>
       <c r="C93" s="22"/>
@@ -2981,7 +3002,7 @@
       <c r="R93" s="22"/>
       <c r="S93" s="23"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5">
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="22"/>
       <c r="B94" s="23"/>
       <c r="C94" s="22"/>
@@ -3002,7 +3023,7 @@
       <c r="R94" s="22"/>
       <c r="S94" s="23"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5">
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="22"/>
       <c r="B95" s="23"/>
       <c r="C95" s="22"/>
@@ -3023,7 +3044,7 @@
       <c r="R95" s="22"/>
       <c r="S95" s="23"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5">
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="22"/>
       <c r="B96" s="23"/>
       <c r="C96" s="22"/>
@@ -3044,7 +3065,7 @@
       <c r="R96" s="22"/>
       <c r="S96" s="23"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5">
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="22"/>
       <c r="B97" s="23"/>
       <c r="C97" s="22"/>
@@ -3065,7 +3086,7 @@
       <c r="R97" s="22"/>
       <c r="S97" s="23"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5">
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="22"/>
       <c r="B98" s="23"/>
       <c r="C98" s="22"/>
@@ -3086,7 +3107,7 @@
       <c r="R98" s="22"/>
       <c r="S98" s="23"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5">
+    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="22"/>
       <c r="B99" s="23"/>
       <c r="C99" s="22"/>
@@ -3107,7 +3128,7 @@
       <c r="R99" s="22"/>
       <c r="S99" s="23"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A100" s="22"/>
       <c r="B100" s="23"/>
       <c r="C100" s="22"/>
@@ -3128,7 +3149,7 @@
       <c r="R100" s="22"/>
       <c r="S100" s="23"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101" s="22"/>
       <c r="B101" s="23"/>
       <c r="C101" s="22"/>
@@ -3149,7 +3170,7 @@
       <c r="R101" s="22"/>
       <c r="S101" s="23"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A102" s="22"/>
       <c r="B102" s="23"/>
       <c r="C102" s="22"/>
@@ -3170,7 +3191,7 @@
       <c r="R102" s="22"/>
       <c r="S102" s="23"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A103" s="22"/>
       <c r="B103" s="23"/>
       <c r="C103" s="22"/>
@@ -3191,7 +3212,7 @@
       <c r="R103" s="22"/>
       <c r="S103" s="23"/>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A104" s="22"/>
       <c r="B104" s="23"/>
       <c r="C104" s="22"/>
@@ -3212,7 +3233,7 @@
       <c r="R104" s="22"/>
       <c r="S104" s="23"/>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A105" s="22"/>
       <c r="B105" s="23"/>
       <c r="C105" s="22"/>
@@ -3233,7 +3254,7 @@
       <c r="R105" s="22"/>
       <c r="S105" s="23"/>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A106" s="22"/>
       <c r="B106" s="23"/>
       <c r="C106" s="22"/>
@@ -3254,7 +3275,7 @@
       <c r="R106" s="22"/>
       <c r="S106" s="23"/>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A107" s="22"/>
       <c r="B107" s="23"/>
       <c r="C107" s="22"/>
@@ -3275,7 +3296,7 @@
       <c r="R107" s="22"/>
       <c r="S107" s="23"/>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108" s="22"/>
       <c r="B108" s="23"/>
       <c r="C108" s="22"/>
@@ -3296,7 +3317,7 @@
       <c r="R108" s="22"/>
       <c r="S108" s="23"/>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A109" s="22"/>
       <c r="B109" s="23"/>
       <c r="C109" s="22"/>
@@ -3317,7 +3338,7 @@
       <c r="R109" s="22"/>
       <c r="S109" s="23"/>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A110" s="22"/>
       <c r="B110" s="23"/>
       <c r="C110" s="22"/>
@@ -3338,7 +3359,7 @@
       <c r="R110" s="22"/>
       <c r="S110" s="23"/>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A111" s="22"/>
       <c r="B111" s="23"/>
       <c r="C111" s="22"/>
@@ -3359,7 +3380,7 @@
       <c r="R111" s="22"/>
       <c r="S111" s="23"/>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A112" s="22"/>
       <c r="B112" s="23"/>
       <c r="C112" s="22"/>
@@ -3380,7 +3401,7 @@
       <c r="R112" s="22"/>
       <c r="S112" s="23"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="22"/>
       <c r="B113" s="23"/>
       <c r="C113" s="22"/>
@@ -3401,7 +3422,7 @@
       <c r="R113" s="22"/>
       <c r="S113" s="23"/>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="22"/>
       <c r="B114" s="23"/>
       <c r="C114" s="22"/>
@@ -3422,7 +3443,7 @@
       <c r="R114" s="22"/>
       <c r="S114" s="23"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="22"/>
       <c r="B115" s="23"/>
       <c r="C115" s="22"/>
@@ -3443,7 +3464,7 @@
       <c r="R115" s="22"/>
       <c r="S115" s="23"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="22"/>
       <c r="B116" s="23"/>
       <c r="C116" s="22"/>
@@ -3464,7 +3485,7 @@
       <c r="R116" s="22"/>
       <c r="S116" s="23"/>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="22"/>
       <c r="B117" s="23"/>
       <c r="C117" s="22"/>
@@ -3485,7 +3506,7 @@
       <c r="R117" s="22"/>
       <c r="S117" s="23"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="22"/>
       <c r="B118" s="23"/>
       <c r="C118" s="22"/>
@@ -3506,7 +3527,7 @@
       <c r="R118" s="22"/>
       <c r="S118" s="23"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="22"/>
       <c r="B119" s="23"/>
       <c r="C119" s="22"/>
@@ -3527,7 +3548,7 @@
       <c r="R119" s="22"/>
       <c r="S119" s="23"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="22"/>
       <c r="B120" s="23"/>
       <c r="C120" s="22"/>
@@ -3548,7 +3569,7 @@
       <c r="R120" s="22"/>
       <c r="S120" s="23"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="22"/>
       <c r="B121" s="23"/>
       <c r="C121" s="22"/>
@@ -3569,7 +3590,7 @@
       <c r="R121" s="22"/>
       <c r="S121" s="23"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="22"/>
       <c r="B122" s="23"/>
       <c r="C122" s="22"/>
@@ -3590,7 +3611,7 @@
       <c r="R122" s="22"/>
       <c r="S122" s="23"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="22"/>
       <c r="B123" s="23"/>
       <c r="C123" s="22"/>
@@ -3611,7 +3632,7 @@
       <c r="R123" s="22"/>
       <c r="S123" s="23"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="22"/>
       <c r="B124" s="23"/>
       <c r="C124" s="22"/>
@@ -3632,7 +3653,7 @@
       <c r="R124" s="22"/>
       <c r="S124" s="23"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="22"/>
       <c r="B125" s="23"/>
       <c r="C125" s="22"/>
@@ -3653,7 +3674,7 @@
       <c r="R125" s="22"/>
       <c r="S125" s="23"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="22"/>
       <c r="B126" s="23"/>
       <c r="C126" s="22"/>
@@ -3674,7 +3695,7 @@
       <c r="R126" s="22"/>
       <c r="S126" s="23"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="22"/>
       <c r="B127" s="23"/>
       <c r="C127" s="22"/>
@@ -3695,7 +3716,7 @@
       <c r="R127" s="22"/>
       <c r="S127" s="23"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="22"/>
       <c r="B128" s="23"/>
       <c r="C128" s="22"/>
@@ -3716,7 +3737,7 @@
       <c r="R128" s="22"/>
       <c r="S128" s="23"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="22"/>
       <c r="B129" s="23"/>
       <c r="C129" s="22"/>
@@ -3737,7 +3758,7 @@
       <c r="R129" s="22"/>
       <c r="S129" s="23"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="22"/>
       <c r="B130" s="23"/>
       <c r="C130" s="22"/>
@@ -3758,7 +3779,7 @@
       <c r="R130" s="22"/>
       <c r="S130" s="23"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="22"/>
       <c r="B131" s="23"/>
       <c r="C131" s="22"/>
@@ -3779,7 +3800,7 @@
       <c r="R131" s="22"/>
       <c r="S131" s="23"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="22"/>
       <c r="B132" s="23"/>
       <c r="C132" s="22"/>
@@ -3800,7 +3821,7 @@
       <c r="R132" s="22"/>
       <c r="S132" s="23"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="22"/>
       <c r="B133" s="23"/>
       <c r="C133" s="22"/>
@@ -3821,7 +3842,7 @@
       <c r="R133" s="22"/>
       <c r="S133" s="23"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="22"/>
       <c r="B134" s="23"/>
       <c r="C134" s="22"/>
@@ -3842,7 +3863,7 @@
       <c r="R134" s="22"/>
       <c r="S134" s="23"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="22"/>
       <c r="B135" s="23"/>
       <c r="C135" s="22"/>
@@ -3863,7 +3884,7 @@
       <c r="R135" s="22"/>
       <c r="S135" s="23"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="22"/>
       <c r="B136" s="23"/>
       <c r="C136" s="22"/>
@@ -3884,7 +3905,7 @@
       <c r="R136" s="22"/>
       <c r="S136" s="23"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="22"/>
       <c r="B137" s="23"/>
       <c r="C137" s="22"/>
@@ -3905,7 +3926,7 @@
       <c r="R137" s="22"/>
       <c r="S137" s="23"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="22"/>
       <c r="B138" s="23"/>
       <c r="C138" s="22"/>
@@ -3926,7 +3947,7 @@
       <c r="R138" s="22"/>
       <c r="S138" s="23"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="22"/>
       <c r="B139" s="23"/>
       <c r="C139" s="22"/>
@@ -3947,7 +3968,7 @@
       <c r="R139" s="22"/>
       <c r="S139" s="23"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="22"/>
       <c r="B140" s="23"/>
       <c r="C140" s="22"/>
@@ -3968,7 +3989,7 @@
       <c r="R140" s="22"/>
       <c r="S140" s="23"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="22"/>
       <c r="B141" s="23"/>
       <c r="C141" s="22"/>
@@ -3989,7 +4010,7 @@
       <c r="R141" s="22"/>
       <c r="S141" s="23"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="22"/>
       <c r="B142" s="23"/>
       <c r="C142" s="22"/>
@@ -4010,7 +4031,7 @@
       <c r="R142" s="22"/>
       <c r="S142" s="23"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="22"/>
       <c r="B143" s="23"/>
       <c r="C143" s="22"/>
@@ -4031,7 +4052,7 @@
       <c r="R143" s="22"/>
       <c r="S143" s="23"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="22"/>
       <c r="B144" s="23"/>
       <c r="C144" s="22"/>
@@ -4052,7 +4073,7 @@
       <c r="R144" s="22"/>
       <c r="S144" s="23"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="22"/>
       <c r="B145" s="23"/>
       <c r="C145" s="22"/>
@@ -4073,7 +4094,7 @@
       <c r="R145" s="22"/>
       <c r="S145" s="23"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="22"/>
       <c r="B146" s="23"/>
       <c r="C146" s="22"/>
@@ -4094,7 +4115,7 @@
       <c r="R146" s="22"/>
       <c r="S146" s="23"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="22"/>
       <c r="B147" s="23"/>
       <c r="C147" s="22"/>
@@ -4115,7 +4136,7 @@
       <c r="R147" s="22"/>
       <c r="S147" s="23"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="22"/>
       <c r="B148" s="23"/>
       <c r="C148" s="22"/>
@@ -4136,7 +4157,7 @@
       <c r="R148" s="22"/>
       <c r="S148" s="23"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="22"/>
       <c r="B149" s="23"/>
       <c r="C149" s="22"/>
@@ -4157,7 +4178,7 @@
       <c r="R149" s="22"/>
       <c r="S149" s="23"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="22"/>
       <c r="B150" s="23"/>
       <c r="C150" s="22"/>
@@ -4178,7 +4199,7 @@
       <c r="R150" s="22"/>
       <c r="S150" s="23"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="22"/>
       <c r="B151" s="23"/>
       <c r="C151" s="22"/>
@@ -4199,7 +4220,7 @@
       <c r="R151" s="22"/>
       <c r="S151" s="23"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="22"/>
       <c r="B152" s="23"/>
       <c r="C152" s="22"/>
@@ -4220,7 +4241,7 @@
       <c r="R152" s="22"/>
       <c r="S152" s="23"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="22"/>
       <c r="B153" s="23"/>
       <c r="C153" s="22"/>
@@ -4241,7 +4262,7 @@
       <c r="R153" s="22"/>
       <c r="S153" s="23"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="22"/>
       <c r="B154" s="23"/>
       <c r="C154" s="22"/>
@@ -4262,7 +4283,7 @@
       <c r="R154" s="22"/>
       <c r="S154" s="23"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="22"/>
       <c r="B155" s="23"/>
       <c r="C155" s="22"/>
@@ -4283,7 +4304,7 @@
       <c r="R155" s="22"/>
       <c r="S155" s="23"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="22"/>
       <c r="B156" s="23"/>
       <c r="C156" s="22"/>
@@ -4304,7 +4325,7 @@
       <c r="R156" s="22"/>
       <c r="S156" s="23"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="22"/>
       <c r="B157" s="23"/>
       <c r="C157" s="22"/>
@@ -4325,7 +4346,7 @@
       <c r="R157" s="22"/>
       <c r="S157" s="23"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="22"/>
       <c r="B158" s="23"/>
       <c r="C158" s="22"/>
@@ -4346,7 +4367,7 @@
       <c r="R158" s="22"/>
       <c r="S158" s="23"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="22"/>
       <c r="B159" s="23"/>
       <c r="C159" s="22"/>
@@ -4367,7 +4388,7 @@
       <c r="R159" s="22"/>
       <c r="S159" s="23"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="22"/>
       <c r="B160" s="23"/>
       <c r="C160" s="22"/>
@@ -4385,7 +4406,7 @@
       <c r="O160" s="23"/>
       <c r="S160" s="23"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="22"/>
       <c r="B161" s="23"/>
       <c r="C161" s="22"/>
@@ -4403,7 +4424,7 @@
       <c r="O161" s="23"/>
       <c r="S161" s="23"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="22"/>
       <c r="B162" s="23"/>
       <c r="C162" s="22"/>
@@ -4421,7 +4442,7 @@
       <c r="O162" s="23"/>
       <c r="S162" s="23"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="22"/>
       <c r="B163" s="23"/>
       <c r="C163" s="22"/>
@@ -4439,7 +4460,7 @@
       <c r="O163" s="23"/>
       <c r="S163" s="23"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="22"/>
       <c r="B164" s="23"/>
       <c r="C164" s="22"/>
@@ -4457,7 +4478,7 @@
       <c r="O164" s="23"/>
       <c r="S164" s="23"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="22"/>
       <c r="B165" s="23"/>
       <c r="C165" s="22"/>
@@ -4475,7 +4496,7 @@
       <c r="O165" s="23"/>
       <c r="S165" s="23"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="22"/>
       <c r="B166" s="23"/>
       <c r="C166" s="22"/>
@@ -4493,7 +4514,7 @@
       <c r="O166" s="23"/>
       <c r="S166" s="23"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="22"/>
       <c r="B167" s="23"/>
       <c r="C167" s="22"/>
@@ -4511,7 +4532,7 @@
       <c r="O167" s="23"/>
       <c r="S167" s="23"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="22"/>
       <c r="B168" s="23"/>
       <c r="C168" s="22"/>
@@ -4529,7 +4550,7 @@
       <c r="O168" s="23"/>
       <c r="S168" s="23"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="22"/>
       <c r="B169" s="23"/>
       <c r="C169" s="22"/>
@@ -4547,7 +4568,7 @@
       <c r="O169" s="23"/>
       <c r="S169" s="23"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="22"/>
       <c r="B170" s="23"/>
       <c r="C170" s="22"/>
@@ -4565,7 +4586,7 @@
       <c r="O170" s="23"/>
       <c r="S170" s="23"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="22"/>
       <c r="B171" s="23"/>
       <c r="C171" s="22"/>
@@ -4583,7 +4604,7 @@
       <c r="O171" s="23"/>
       <c r="S171" s="23"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="22"/>
       <c r="B172" s="23"/>
       <c r="C172" s="22"/>
@@ -4601,7 +4622,7 @@
       <c r="O172" s="23"/>
       <c r="S172" s="23"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="22"/>
       <c r="B173" s="23"/>
       <c r="C173" s="22"/>
@@ -4619,7 +4640,7 @@
       <c r="O173" s="23"/>
       <c r="S173" s="23"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="22"/>
       <c r="B174" s="23"/>
       <c r="C174" s="22"/>
@@ -4637,7 +4658,7 @@
       <c r="O174" s="23"/>
       <c r="S174" s="23"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="22"/>
       <c r="B175" s="23"/>
       <c r="C175" s="22"/>
@@ -4655,7 +4676,7 @@
       <c r="O175" s="23"/>
       <c r="S175" s="23"/>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="22"/>
       <c r="B176" s="23"/>
       <c r="C176" s="22"/>
@@ -4673,7 +4694,7 @@
       <c r="O176" s="23"/>
       <c r="S176" s="23"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="22"/>
       <c r="B177" s="23"/>
       <c r="C177" s="22"/>
@@ -4691,7 +4712,7 @@
       <c r="O177" s="23"/>
       <c r="S177" s="23"/>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="22"/>
       <c r="B178" s="23"/>
       <c r="C178" s="22"/>
@@ -4709,7 +4730,7 @@
       <c r="O178" s="23"/>
       <c r="S178" s="23"/>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="22"/>
       <c r="B179" s="23"/>
       <c r="C179" s="22"/>
@@ -4727,7 +4748,7 @@
       <c r="O179" s="23"/>
       <c r="S179" s="23"/>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="22"/>
       <c r="B180" s="23"/>
       <c r="C180" s="22"/>
@@ -4745,7 +4766,7 @@
       <c r="O180" s="23"/>
       <c r="S180" s="23"/>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="22"/>
       <c r="B181" s="23"/>
       <c r="C181" s="22"/>
@@ -4763,7 +4784,7 @@
       <c r="O181" s="23"/>
       <c r="S181" s="23"/>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="22"/>
       <c r="B182" s="23"/>
       <c r="C182" s="22"/>
@@ -4781,7 +4802,7 @@
       <c r="O182" s="23"/>
       <c r="S182" s="23"/>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="22"/>
       <c r="B183" s="23"/>
       <c r="C183" s="22"/>
@@ -4799,7 +4820,7 @@
       <c r="O183" s="23"/>
       <c r="S183" s="23"/>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="22"/>
       <c r="B184" s="23"/>
       <c r="C184" s="22"/>
@@ -4817,7 +4838,7 @@
       <c r="O184" s="23"/>
       <c r="S184" s="23"/>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="22"/>
       <c r="B185" s="23"/>
       <c r="C185" s="22"/>
@@ -4835,7 +4856,7 @@
       <c r="O185" s="23"/>
       <c r="S185" s="23"/>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="22"/>
       <c r="B186" s="23"/>
       <c r="C186" s="22"/>
@@ -4853,7 +4874,7 @@
       <c r="O186" s="23"/>
       <c r="S186" s="23"/>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="22"/>
       <c r="B187" s="23"/>
       <c r="C187" s="22"/>
@@ -4871,7 +4892,7 @@
       <c r="O187" s="23"/>
       <c r="S187" s="23"/>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="22"/>
       <c r="B188" s="23"/>
       <c r="C188" s="22"/>
@@ -4889,7 +4910,7 @@
       <c r="O188" s="23"/>
       <c r="S188" s="23"/>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="22"/>
       <c r="B189" s="23"/>
       <c r="C189" s="22"/>
@@ -4907,7 +4928,7 @@
       <c r="O189" s="23"/>
       <c r="S189" s="23"/>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="22"/>
       <c r="B190" s="23"/>
       <c r="C190" s="22"/>
@@ -4925,7 +4946,7 @@
       <c r="O190" s="23"/>
       <c r="S190" s="23"/>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="22"/>
       <c r="B191" s="23"/>
       <c r="C191" s="22"/>
@@ -4943,7 +4964,7 @@
       <c r="O191" s="23"/>
       <c r="S191" s="23"/>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="22"/>
       <c r="B192" s="23"/>
       <c r="C192" s="22"/>
@@ -4961,7 +4982,7 @@
       <c r="O192" s="23"/>
       <c r="S192" s="23"/>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="22"/>
       <c r="B193" s="23"/>
       <c r="C193" s="22"/>
@@ -4979,7 +5000,7 @@
       <c r="O193" s="23"/>
       <c r="S193" s="23"/>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A194" s="22"/>
       <c r="B194" s="23"/>
       <c r="C194" s="22"/>
@@ -5006,14 +5027,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5024,7 +5045,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -5050,7 +5071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5060,7 +5081,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5070,7 +5091,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5080,7 +5101,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5090,7 +5111,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5100,7 +5121,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5110,7 +5131,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5120,7 +5141,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5130,7 +5151,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5140,7 +5161,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5150,7 +5171,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5160,7 +5181,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5170,7 +5191,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5180,7 +5201,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5190,7 +5211,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5200,7 +5221,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5210,7 +5231,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5220,7 +5241,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
